--- a/biology/Botanique/Convolvulus_siculus/Convolvulus_siculus.xlsx
+++ b/biology/Botanique/Convolvulus_siculus/Convolvulus_siculus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Convolvulus siculus, le Liseron de Sicile, est une espèce de plantes de la famille des Convolvulaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Liseron de Sicile se développe sur des pentes rocailleuses ensoleillées.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est originaire de la région méditerranéenne, ainsi que des bords de la Mer rouge et de l'Océan Indien, à l'est jusqu'en Inde, au sud jusqu'en Tanzanie, à l'ouest jusqu'au Portugal et au Maroc, au nord jusqu'en France[2]. En France, on le trouve principalement en région Méditerranéenne, sur les rochers et coteaux pierreux du littoral.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est originaire de la région méditerranéenne, ainsi que des bords de la Mer rouge et de l'Océan Indien, à l'est jusqu'en Inde, au sud jusqu'en Tanzanie, à l'ouest jusqu'au Portugal et au Maroc, au nord jusqu'en France. En France, on le trouve principalement en région Méditerranéenne, sur les rochers et coteaux pierreux du littoral.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante annuelle de 5 à 50 cm, rampante,  aux tiges flexueuses. Ses feuilles sont ovales, tronquées à la base, veinées. Les fleurs, solitaires, sont bleues et de petite taille (7 à 12 mm).
 </t>
@@ -604,12 +622,14 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Convolvulus siculus  admet deux sous-espèces[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Convolvulus siculus  admet deux sous-espèces :
 Convolvulus siculus subsp. elongatus Batt.
 Convolvulus siculus subsp. siculus
-Selon Tropicos                                           (20 décembre 2020)[1] :
+Selon Tropicos                                           (20 décembre 2020) :
 sous-espèce Convolvulus siculus subsp. agrestis Verdc.
 sous-espèce Convolvulus siculus subsp. elongatus Batt.
 sous-espèce Convolvulus siculus subsp. siculus</t>
